--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95243.12128094205</v>
+        <v>17486245.68819231</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95243.12128094205</v>
+        <v>17486245.68819231</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56973.15013131746</v>
+        <v>7276282.795160043</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56973.15013131746</v>
+        <v>7276282.795160043</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494623700.43399</v>
+        <v>53973120.99763405</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12197.86151075695</v>
+        <v>1256133.083971811</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23366.71002036907</v>
+        <v>2354462.54566979</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34535.55852998116</v>
+        <v>3452792.007367771</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46431.18107844004</v>
+        <v>4417522.623796377</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57774.51157107121</v>
+        <v>5523479.564635251</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68949.29226522878</v>
+        <v>6622957.619096869</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80058.41752474262</v>
+        <v>7747625.403352961</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91140.85166696862</v>
+        <v>8868953.245355066</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103125.0890770587</v>
+        <v>9822052.488994269</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114364.9339813675</v>
+        <v>10949137.19450412</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125486.5428635235</v>
+        <v>12057031.50865823</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136608.1517456794</v>
+        <v>13164925.82281233</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147729.7606278353</v>
+        <v>14272820.13696645</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>160184.6176802237</v>
+        <v>15152076.74032648</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>175183.3845986326</v>
+        <v>15660956.20250403</v>
       </c>
     </row>
   </sheetData>
